--- a/_comparisonFigure/comparison_rates.xlsx
+++ b/_comparisonFigure/comparison_rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomo/Documents/GitHub/excess-mortality-world/_comparisonFigure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB0FC5D-989C-944E-ABD4-0C8FD273C7A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBB53E8-0E1C-CD4D-9EF8-A1D44DCB56AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7780" yWindow="500" windowWidth="30720" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17640" yWindow="9080" windowWidth="30720" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Country</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Rep. Korea</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
   </si>
 </sst>
 </file>
@@ -167,9 +170,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,16 +454,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" customWidth="1"/>
     <col min="6" max="6" width="10.1640625" customWidth="1"/>
@@ -468,9 +472,12 @@
     <col min="9" max="9" width="15.83203125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="15.1640625" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" customWidth="1"/>
+    <col min="18" max="18" width="11.5" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,7 +500,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -515,8 +522,18 @@
       <c r="G2" s="1">
         <v>-476.11127042070689</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -538,8 +555,18 @@
       <c r="G3" s="1">
         <v>382.70198253645344</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -561,8 +588,18 @@
       <c r="G4" s="1">
         <v>280.36302288191263</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -584,8 +621,18 @@
       <c r="G5" s="1">
         <v>117.42671492294014</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -607,8 +654,18 @@
       <c r="G6" s="1">
         <v>1067.6364096383279</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -630,8 +687,18 @@
       <c r="G7" s="1">
         <v>1502.1486589184028</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -653,8 +720,17 @@
       <c r="G8" s="1">
         <v>-304.55740315426124</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -676,8 +752,17 @@
       <c r="G9" s="1">
         <v>-301.74376610219394</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -699,8 +784,18 @@
       <c r="G10" s="1">
         <v>235.2781949524807</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -722,8 +817,18 @@
       <c r="G11" s="1">
         <v>24.639178382366509</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -745,8 +850,18 @@
       <c r="G12" s="1">
         <v>1366.776775963682</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -768,8 +883,12 @@
       <c r="G13" s="1">
         <v>-394.3110063253489</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -791,8 +910,18 @@
       <c r="G14" s="1">
         <v>815.04772707540837</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -814,8 +943,18 @@
       <c r="G15" s="1">
         <v>1431.1920434309538</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -837,213 +976,337 @@
       <c r="G16" s="1">
         <v>-89.628335879412603</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1">
+        <v>816.8723544279427</v>
+      </c>
+      <c r="C17" s="1">
+        <v>946.50551065616366</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1304.3583831012947</v>
+      </c>
+      <c r="E17" s="1">
+        <v>837.45541638545319</v>
+      </c>
+      <c r="F17" s="1">
+        <v>515.12122606477283</v>
+      </c>
+      <c r="G17" s="1">
+        <v>406.35780396617258</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B18" s="1">
         <v>-274.95001177934387</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C18" s="1">
         <v>-253.14737360093162</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D18" s="1">
         <v>-86.026699056902714</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E18" s="1">
         <v>-264.0980199258355</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F18" s="1">
         <v>-406.25911320679518</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G18" s="1">
         <v>-513.10190572815486</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B19" s="1">
         <v>102.33348223273255</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C19" s="1">
         <v>184.59064097566471</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D19" s="1">
         <v>68.965889025147646</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E19" s="1">
         <v>-9.3875401503233302</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F19" s="1">
         <v>-278.28015059473319</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G19" s="1">
         <v>-410.63517212008395</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B20" s="1">
         <v>1002.2470945037529</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C20" s="1">
         <v>1189.008136005081</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D20" s="1">
         <v>1958.2522908522328</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E20" s="1">
         <v>991.09862849147532</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F20" s="1">
         <v>789.40833685196696</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G20" s="1">
         <v>506.72201605369412</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B21" s="1">
         <v>73.312258858390152</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C21" s="1">
         <v>67.839886766689361</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D21" s="1">
         <v>45.083777196752081</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E21" s="1">
         <v>61.228248598958331</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F21" s="1">
         <v>-294.90437930471563</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G21" s="1">
         <v>-604.04471590136473</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B22" s="1">
         <v>1087.2106203368905</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <v>1221.2131216676523</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D22" s="1">
         <v>1710.1311813126999</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E22" s="1">
         <v>1097.1969419265313</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F22" s="1">
         <v>725.43342456672053</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G22" s="1">
         <v>383.30162465101319</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B23" s="1">
         <v>479.3618219265004</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="1">
         <v>578.3636086431361</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D23" s="1">
         <v>874.11333637614928</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E23" s="1">
         <v>649.01707887066686</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F23" s="1">
         <v>-17.723734500002585</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G23" s="1">
         <v>-129.47501960356112</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B24" s="1">
         <v>659.52270560594297</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C24" s="1">
         <v>783.68245666130088</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D24" s="1">
         <v>897.19167429279594</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E24" s="1">
         <v>477.36385405759273</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F24" s="1">
         <v>326.46200277492704</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G24" s="1">
         <v>130.58480110997081</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B25" s="1">
         <v>1021.8497769003028</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="1">
         <v>1112.1911724325391</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D25" s="1">
         <v>1262.4190379483985</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E25" s="1">
         <v>1112.2509319136254</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F25" s="1">
         <v>652.17762690035988</v>
       </c>
-      <c r="G24" s="1">
+      <c r="G25" s="1">
         <v>536.4011022307609</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B26" s="1">
         <v>1452.8313536895128</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C26" s="1">
         <v>1538.4306570841566</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D26" s="1">
         <v>1708.2671853477818</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E26" s="1">
         <v>1409.6348700132937</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F26" s="1">
         <v>1317.172263059819</v>
       </c>
-      <c r="G25" s="1">
+      <c r="G26" s="1">
         <v>1391.9066848074765</v>
       </c>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_comparisonFigure/comparison_rates.xlsx
+++ b/_comparisonFigure/comparison_rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giacomo/Documents/GitHub/excess-mortality-world/_comparisonFigure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBB53E8-0E1C-CD4D-9EF8-A1D44DCB56AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4B9DCD6-3487-B549-9946-C3017A63F1DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17640" yWindow="9080" windowWidth="30720" windowHeight="14500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -520,7 +520,7 @@
         <v>-282.59457229633944</v>
       </c>
       <c r="G2" s="1">
-        <v>-476.11127042070689</v>
+        <v>-500.9</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
